--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matti/Documents/pws-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2803E8-42DF-5144-83CF-602106C20259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14AF024-5C71-EC4D-B37A-ADDDBDEE748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="-22860" windowWidth="30080" windowHeight="33340" activeTab="1" xr2:uid="{0FE6AB49-73FA-426E-9201-8E04D012D768}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{0FE6AB49-73FA-426E-9201-8E04D012D768}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="327">
   <si>
     <t>Events</t>
   </si>
@@ -1042,14 +1042,24 @@
   <si>
     <t>job_exited</t>
   </si>
+  <si>
+    <t>player_logged_in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1284,81 +1294,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2181,8 +2192,8 @@
   <dimension ref="A5:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="5" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2562,7 +2573,7 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="57" t="s">
         <v>325</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -4493,9 +4504,13 @@
       <c r="E242" s="39"/>
     </row>
     <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="25"/>
+      <c r="A243" s="60" t="s">
+        <v>326</v>
+      </c>
       <c r="B243" s="25"/>
-      <c r="C243" s="25"/>
+      <c r="C243" s="60" t="s">
+        <v>51</v>
+      </c>
       <c r="D243" s="25"/>
       <c r="E243" s="25"/>
     </row>
@@ -5476,8 +5491,8 @@
     <row r="102" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -5500,8 +5515,8 @@
     <row r="103" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="25"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -7703,10 +7718,10 @@
       <c r="B2" s="26">
         <v>250593073</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="59"/>
       <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7716,8 +7731,8 @@
       <c r="B3" s="26">
         <v>1707691611</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -8342,10 +8357,10 @@
       <c r="B2" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
@@ -8354,8 +8369,8 @@
       <c r="B3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
@@ -8824,17 +8839,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e9d9dbe-c99f-440d-aeba-65fe6348c24b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a53e39b0-408c-4e73-93cc-73eda34acf6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7ECF9D48D0D9743BD27ED4F07174A10" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72b7235ba878434e2066ab6728dfd9e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e9d9dbe-c99f-440d-aeba-65fe6348c24b" xmlns:ns3="a53e39b0-408c-4e73-93cc-73eda34acf6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="987a077b342f9330b0132a1d5bb94970" ns2:_="" ns3:_="">
     <xsd:import namespace="8e9d9dbe-c99f-440d-aeba-65fe6348c24b"/>
@@ -9077,6 +9081,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e9d9dbe-c99f-440d-aeba-65fe6348c24b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a53e39b0-408c-4e73-93cc-73eda34acf6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC1ED16-9C1A-403D-9782-40A09A8A18A7}">
   <ds:schemaRefs>
@@ -9086,17 +9101,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F8070FE-0F1F-47A4-B3FD-68BD27174D9D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8e9d9dbe-c99f-440d-aeba-65fe6348c24b"/>
-    <ds:schemaRef ds:uri="a53e39b0-408c-4e73-93cc-73eda34acf6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F124C24F-F6DA-49F3-B996-CA66AC99977D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9113,4 +9117,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F8070FE-0F1F-47A4-B3FD-68BD27174D9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8e9d9dbe-c99f-440d-aeba-65fe6348c24b"/>
+    <ds:schemaRef ds:uri="a53e39b0-408c-4e73-93cc-73eda34acf6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matti/Documents/pws-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9386B-4708-774A-9DE2-CDB53474FB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0749CEB-A9FD-9D4E-AFD9-ADA82CB1FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="3" xr2:uid="{0FE6AB49-73FA-426E-9201-8E04D012D768}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="4" xr2:uid="{0FE6AB49-73FA-426E-9201-8E04D012D768}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="330">
   <si>
     <t>Events</t>
   </si>
@@ -403,15 +403,6 @@
     <t>If the player has reset their campaign progress and started again, this will not be cleared</t>
   </si>
   <si>
-    <t>A list of the current career jobs the player has started but not completed</t>
-  </si>
-  <si>
-    <t>IDs of the levels, comma separated (see below)</t>
-  </si>
-  <si>
-    <t>A list of the current challenge jobs the player has started but not completed</t>
-  </si>
-  <si>
     <t>The 'credits' a player currently owns</t>
   </si>
   <si>
@@ -421,9 +412,6 @@
     <t>See below for potential names</t>
   </si>
   <si>
-    <t>A list of the current freeplay jobs the player has started but not completed</t>
-  </si>
-  <si>
     <t>The current game mode being played</t>
   </si>
   <si>
@@ -457,9 +445,6 @@
     <t>This will continue counting up regardless of whether the player is actively playing the game, it will reset to 0 if the player closes and re-opens the game. Any partial minutes aren't counted as we round down to the nearest total minute</t>
   </si>
   <si>
-    <t>A list of the current special jobs the player has started but not completed</t>
-  </si>
-  <si>
     <t>The name of the current washer a player has equipped</t>
   </si>
   <si>
@@ -496,51 +481,9 @@
     <t>Number describing the proportion of dirt cleaned in the current level?</t>
   </si>
   <si>
-    <t>The ID of the user, to be matched with the Qualtrics API ID</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>In Playfab, the OxfordStudyEntityId will correspond to the entityId for that user in Qualtrics. Where OxfordStudyEntityId doesn't exist on the events, the player can be looked up using Playfab's EntityId and their corresponding Qualtrics entityId can be found under 'Identities' on their player profile.</t>
-  </si>
-  <si>
-    <t>An identifier for the event, this will be sent along with events that send data to Qualtrics</t>
-  </si>
-  <si>
-    <r>
-      <t>The OxfordStudyEventId</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>is the identifier for the invidividual event being sent to the API. Where this is sent, there will be a corresponding 'eventId' entry within the Qualtrics data.</t>
-    </r>
-  </si>
-  <si>
-    <t>The localised timestamp of the user, stored at the time of sending</t>
-  </si>
-  <si>
     <t>DateTime</t>
   </si>
   <si>
-    <t>This should be the same value as the 'timeStamp' within Qualtrics.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The ID of the reward (cosmetic) that has been unlocked or claimed </t>
   </si>
   <si>
@@ -1049,9 +992,6 @@
   </si>
   <si>
     <t>These are listed in order of unlocking throughout gameplay and are generally considered to be better at washing than the preceding one</t>
-  </si>
-  <si>
-    <t>Added in v1.1.0</t>
   </si>
   <si>
     <t>Standing, Crouching, Laying</t>
@@ -1107,7 +1047,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,12 +1064,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1211,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1219,31 +1153,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1638,41 +1569,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>325</v>
+        <v>329</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,41 +1611,41 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="15"/>
+        <v>323</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="15"/>
+        <v>325</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="15"/>
+        <v>326</v>
+      </c>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C8" s="15" t="s">
         <v>327</v>
       </c>
+      <c r="C8" s="14" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,7 +2052,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s">
         <v>85</v>
@@ -3219,8 +3150,8 @@
       <c r="C224" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="16" t="s">
-        <v>341</v>
+      <c r="D224" s="15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -3300,7 +3231,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C240" t="s">
         <v>51</v>
@@ -3318,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54C53F8-E52C-4B4C-8F84-ABA9EAB443B5}">
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
@@ -3456,7 +3387,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -3999,7 +3930,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
         <v>51</v>
@@ -4015,10 +3946,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8340AC36-C172-4C5F-84E7-2C00AB84258D}">
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4068,7 +3999,7 @@
         <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4087,61 +4018,61 @@
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>120</v>
+      <c r="D6" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>125</v>
@@ -4149,131 +4080,125 @@
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>141</v>
@@ -4281,19 +4206,19 @@
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
@@ -4303,35 +4228,35 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
@@ -4341,2728 +4266,2636 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>157</v>
-      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="6"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="6"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="6"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="6"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="6"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="6"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="6"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="6"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="6"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="6"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="6"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="6"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="6"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="6"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="6"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="6"/>
-    </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="6"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="6"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="6"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="6"/>
-      <c r="V105" s="6"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
     </row>
     <row r="106" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="6"/>
-      <c r="V106" s="6"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
     </row>
     <row r="107" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
     </row>
     <row r="109" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="6"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
     </row>
     <row r="112" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="6"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="6"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
     </row>
     <row r="114" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="6"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
-      <c r="T115" s="6"/>
-      <c r="U115" s="6"/>
-      <c r="V115" s="6"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
     </row>
     <row r="116" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="6"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-      <c r="V117" s="6"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="6"/>
-      <c r="T118" s="6"/>
-      <c r="U118" s="6"/>
-      <c r="V118" s="6"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="6"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="6"/>
-      <c r="V120" s="6"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
     </row>
     <row r="121" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="6"/>
-      <c r="T121" s="6"/>
-      <c r="U121" s="6"/>
-      <c r="V121" s="6"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="6"/>
-      <c r="U122" s="6"/>
-      <c r="V122" s="6"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6"/>
-      <c r="U123" s="6"/>
-      <c r="V123" s="6"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
     </row>
     <row r="124" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-      <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="6"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
-      <c r="T125" s="6"/>
-      <c r="U125" s="6"/>
-      <c r="V125" s="6"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="6"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="6"/>
-      <c r="V126" s="6"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6"/>
-      <c r="T127" s="6"/>
-      <c r="U127" s="6"/>
-      <c r="V127" s="6"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
     </row>
     <row r="128" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
-      <c r="S128" s="6"/>
-      <c r="T128" s="6"/>
-      <c r="U128" s="6"/>
-      <c r="V128" s="6"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
     </row>
     <row r="130" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="6"/>
-      <c r="T130" s="6"/>
-      <c r="U130" s="6"/>
-      <c r="V130" s="6"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
     </row>
     <row r="131" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-      <c r="T131" s="6"/>
-      <c r="U131" s="6"/>
-      <c r="V131" s="6"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-      <c r="T132" s="6"/>
-      <c r="U132" s="6"/>
-      <c r="V132" s="6"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
     </row>
     <row r="133" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
-      <c r="U133" s="6"/>
-      <c r="V133" s="6"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="6"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="6"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
-      <c r="U136" s="6"/>
-      <c r="V136" s="6"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
-      <c r="U137" s="6"/>
-      <c r="V137" s="6"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
     </row>
     <row r="138" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="6"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
-      <c r="U138" s="6"/>
-      <c r="V138" s="6"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
     </row>
     <row r="139" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="6"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-      <c r="T139" s="6"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="6"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
     </row>
     <row r="140" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
-      <c r="U140" s="6"/>
-      <c r="V140" s="6"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
     </row>
     <row r="141" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-      <c r="T141" s="6"/>
-      <c r="U141" s="6"/>
-      <c r="V141" s="6"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-      <c r="T142" s="6"/>
-      <c r="U142" s="6"/>
-      <c r="V142" s="6"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
     </row>
     <row r="143" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-      <c r="T143" s="6"/>
-      <c r="U143" s="6"/>
-      <c r="V143" s="6"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
     </row>
     <row r="144" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-      <c r="T144" s="6"/>
-      <c r="U144" s="6"/>
-      <c r="V144" s="6"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-      <c r="T145" s="6"/>
-      <c r="U145" s="6"/>
-      <c r="V145" s="6"/>
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-      <c r="T146" s="6"/>
-      <c r="U146" s="6"/>
-      <c r="V146" s="6"/>
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-      <c r="T147" s="6"/>
-      <c r="U147" s="6"/>
-      <c r="V147" s="6"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="6"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
     </row>
     <row r="149" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-      <c r="T149" s="6"/>
-      <c r="U149" s="6"/>
-      <c r="V149" s="6"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-      <c r="U150" s="6"/>
-      <c r="V150" s="6"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-      <c r="T151" s="6"/>
-      <c r="U151" s="6"/>
-      <c r="V151" s="6"/>
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-      <c r="T152" s="6"/>
-      <c r="U152" s="6"/>
-      <c r="V152" s="6"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-      <c r="T153" s="6"/>
-      <c r="U153" s="6"/>
-      <c r="V153" s="6"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-      <c r="T154" s="6"/>
-      <c r="U154" s="6"/>
-      <c r="V154" s="6"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-      <c r="T155" s="6"/>
-      <c r="U155" s="6"/>
-      <c r="V155" s="6"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-      <c r="T156" s="6"/>
-      <c r="U156" s="6"/>
-      <c r="V156" s="6"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
     </row>
     <row r="157" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
-      <c r="U157" s="6"/>
-      <c r="V157" s="6"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
-      <c r="U158" s="6"/>
-      <c r="V158" s="6"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="5"/>
     </row>
     <row r="159" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-      <c r="T159" s="6"/>
-      <c r="U159" s="6"/>
-      <c r="V159" s="6"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="6"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="5"/>
     </row>
     <row r="161" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-      <c r="T161" s="6"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="6"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-      <c r="T162" s="6"/>
-      <c r="U162" s="6"/>
-      <c r="V162" s="6"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-      <c r="T163" s="6"/>
-      <c r="U163" s="6"/>
-      <c r="V163" s="6"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
     </row>
     <row r="164" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-      <c r="T164" s="6"/>
-      <c r="U164" s="6"/>
-      <c r="V164" s="6"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5"/>
+      <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-      <c r="T165" s="6"/>
-      <c r="U165" s="6"/>
-      <c r="V165" s="6"/>
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6"/>
-      <c r="T166" s="6"/>
-      <c r="U166" s="6"/>
-      <c r="V166" s="6"/>
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5"/>
+      <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6"/>
-      <c r="T167" s="6"/>
-      <c r="U167" s="6"/>
-      <c r="V167" s="6"/>
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="5"/>
+      <c r="V167" s="5"/>
     </row>
     <row r="168" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6"/>
-      <c r="T168" s="6"/>
-      <c r="U168" s="6"/>
-      <c r="V168" s="6"/>
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5"/>
+      <c r="V168" s="5"/>
     </row>
     <row r="169" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6"/>
-      <c r="T169" s="6"/>
-      <c r="U169" s="6"/>
-      <c r="V169" s="6"/>
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5"/>
+      <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
-      <c r="O170" s="6"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="6"/>
-      <c r="R170" s="6"/>
-      <c r="S170" s="6"/>
-      <c r="T170" s="6"/>
-      <c r="U170" s="6"/>
-      <c r="V170" s="6"/>
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5"/>
+      <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6"/>
-      <c r="T171" s="6"/>
-      <c r="U171" s="6"/>
-      <c r="V171" s="6"/>
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5"/>
+      <c r="V171" s="5"/>
     </row>
     <row r="172" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6"/>
-      <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="6"/>
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="5"/>
+      <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
-      <c r="O173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
-      <c r="R173" s="6"/>
-      <c r="S173" s="6"/>
-      <c r="T173" s="6"/>
-      <c r="U173" s="6"/>
-      <c r="V173" s="6"/>
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="5"/>
     </row>
     <row r="174" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
-      <c r="T174" s="6"/>
-      <c r="U174" s="6"/>
-      <c r="V174" s="6"/>
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5"/>
+      <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="6"/>
-      <c r="T175" s="6"/>
-      <c r="U175" s="6"/>
-      <c r="V175" s="6"/>
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5"/>
+      <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="5"/>
+      <c r="U176" s="5"/>
+      <c r="V176" s="5"/>
     </row>
     <row r="177" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-      <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5"/>
+      <c r="V177" s="5"/>
     </row>
     <row r="178" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="6"/>
-      <c r="T178" s="6"/>
-      <c r="U178" s="6"/>
-      <c r="V178" s="6"/>
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="5"/>
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5"/>
+      <c r="V178" s="5"/>
     </row>
     <row r="179" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-      <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="6"/>
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="5"/>
     </row>
     <row r="180" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5"/>
+      <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="6"/>
-      <c r="T181" s="6"/>
-      <c r="U181" s="6"/>
-      <c r="V181" s="6"/>
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5"/>
+      <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
-      <c r="S182" s="6"/>
-      <c r="T182" s="6"/>
-      <c r="U182" s="6"/>
-      <c r="V182" s="6"/>
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+      <c r="U182" s="5"/>
+      <c r="V182" s="5"/>
     </row>
     <row r="183" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="6"/>
-      <c r="S183" s="6"/>
-      <c r="T183" s="6"/>
-      <c r="U183" s="6"/>
-      <c r="V183" s="6"/>
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5"/>
+      <c r="V183" s="5"/>
     </row>
     <row r="184" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6"/>
-      <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="6"/>
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5"/>
+      <c r="V184" s="5"/>
     </row>
     <row r="185" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="6"/>
-      <c r="T185" s="6"/>
-      <c r="U185" s="6"/>
-      <c r="V185" s="6"/>
-    </row>
-    <row r="186" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6"/>
-      <c r="T186" s="6"/>
-      <c r="U186" s="6"/>
-      <c r="V186" s="6"/>
-    </row>
-    <row r="187" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="6"/>
-      <c r="R187" s="6"/>
-      <c r="S187" s="6"/>
-      <c r="T187" s="6"/>
-      <c r="U187" s="6"/>
-      <c r="V187" s="6"/>
-    </row>
-    <row r="188" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="6"/>
-      <c r="S188" s="6"/>
-      <c r="T188" s="6"/>
-      <c r="U188" s="6"/>
-      <c r="V188" s="6"/>
-    </row>
-    <row r="189" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
-      <c r="S189" s="6"/>
-      <c r="T189" s="6"/>
-      <c r="U189" s="6"/>
-      <c r="V189" s="6"/>
-    </row>
-    <row r="190" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
-      <c r="L190" s="6"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
-      <c r="O190" s="6"/>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="6"/>
-      <c r="S190" s="6"/>
-      <c r="T190" s="6"/>
-      <c r="U190" s="6"/>
-      <c r="V190" s="6"/>
-    </row>
-    <row r="191" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
-      <c r="L191" s="6"/>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-      <c r="R191" s="6"/>
-      <c r="S191" s="6"/>
-      <c r="T191" s="6"/>
-      <c r="U191" s="6"/>
-      <c r="V191" s="6"/>
-    </row>
-    <row r="192" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
-      <c r="L192" s="6"/>
-      <c r="M192" s="6"/>
-      <c r="N192" s="6"/>
-      <c r="O192" s="6"/>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
-      <c r="R192" s="6"/>
-      <c r="S192" s="6"/>
-      <c r="T192" s="6"/>
-      <c r="U192" s="6"/>
-      <c r="V192" s="6"/>
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5"/>
+      <c r="V185" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="C95:D96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7073,7 +6906,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7086,10 +6919,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>83</v>
@@ -7098,606 +6931,598 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="7">
+        <v>152</v>
+      </c>
+      <c r="B2" s="6">
         <v>250593073</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="7">
+        <v>154</v>
+      </c>
+      <c r="B3" s="6">
         <v>1707691611</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="7">
+        <v>155</v>
+      </c>
+      <c r="B4" s="6">
         <v>-1262025387</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="7">
+        <v>156</v>
+      </c>
+      <c r="B5" s="6">
         <v>-867930299</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="7">
+        <v>157</v>
+      </c>
+      <c r="B6" s="6">
         <v>62973388</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="7">
+        <v>158</v>
+      </c>
+      <c r="B7" s="6">
         <v>-232889022</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="7">
+        <v>159</v>
+      </c>
+      <c r="B8" s="6">
         <v>-288600862</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="7">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6">
         <v>1474852231</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="7">
+        <v>161</v>
+      </c>
+      <c r="B10" s="6">
         <v>1585782088</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="7">
+        <v>162</v>
+      </c>
+      <c r="B11" s="6">
         <v>1930834688</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="7">
+        <v>163</v>
+      </c>
+      <c r="B12" s="6">
         <v>366429742</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="7">
+        <v>164</v>
+      </c>
+      <c r="B13" s="6">
         <v>1136334103</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="7">
+        <v>165</v>
+      </c>
+      <c r="B14" s="6">
         <v>27455038</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="7">
+        <v>166</v>
+      </c>
+      <c r="B15" s="6">
         <v>368346604</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="7">
+        <v>167</v>
+      </c>
+      <c r="B16" s="6">
         <v>-1547411671</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="7">
+        <v>168</v>
+      </c>
+      <c r="B17" s="6">
         <v>1386541276</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1571788453</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="8">
+        <v>-1248587309</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-1274627333</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2103617266</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="8">
+        <v>587595203</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="8">
+        <v>-1341410671</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-483985405</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1339763499</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="8">
+        <v>-2069552821</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1472982695</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-525274995</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1077681785</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="9">
-        <v>1571788453</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="B30" s="8">
+        <v>-945589735</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="9">
-        <v>-1248587309</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="B31" s="8">
+        <v>-1094676256</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="9">
-        <v>-1274627333</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B32" s="8">
+        <v>442130070</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="9">
-        <v>2103617266</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="B33" s="8">
+        <v>-958030099</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="9">
-        <v>587595203</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="B34" s="8">
+        <v>-854133722</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="9">
-        <v>-1341410671</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="B35" s="8">
+        <v>-1752943952</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="9">
-        <v>-483985405</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="B36" s="8">
+        <v>-1242125843</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="9">
-        <v>1339763499</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="B37" s="8">
+        <v>-564706649</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="9">
-        <v>-2069552821</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B38" s="8">
+        <v>1409021991</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="9">
-        <v>1472982695</v>
-      </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="B39" s="8">
+        <v>-1993239275</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="9">
-        <v>-525274995</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B40" s="8">
+        <v>-2017018376</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="9">
-        <v>1077681785</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B41" s="8">
+        <v>756185150</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="9">
-        <v>-945589735</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B42" s="8">
+        <v>-1239560797</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="9">
-        <v>-1094676256</v>
-      </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="B43" s="8">
+        <v>2067929395</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B32" s="9">
-        <v>442130070</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="B44" s="8">
+        <v>-1156193118</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="9">
-        <v>-958030099</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="B45" s="8">
+        <v>1042850089</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="9">
-        <v>-854133722</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="B46" s="8">
+        <v>2122499060</v>
+      </c>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="9">
-        <v>-1752943952</v>
-      </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="B47" s="8">
+        <v>-1704290728</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="9">
-        <v>-1242125843</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="B48" s="8">
+        <v>2019387507</v>
+      </c>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="9">
-        <v>-564706649</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="B49" s="8">
+        <v>-23484989</v>
+      </c>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="9">
-        <v>1409021991</v>
-      </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="B50" s="8">
+        <v>675662000</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="9">
-        <v>-1993239275</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="B51" s="8">
+        <v>-76625773</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="9">
-        <v>-2017018376</v>
-      </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="B52" s="8">
+        <v>84466487</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="9">
-        <v>756185150</v>
-      </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="B53" s="8">
+        <v>-393417777</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="9">
-        <v>-1239560797</v>
-      </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="B54" s="8">
+        <v>-850448534</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="9">
-        <v>2067929395</v>
-      </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="B55" s="8">
+        <v>880434864</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="9">
-        <v>-1156193118</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="B56" s="8">
+        <v>1618229574</v>
+      </c>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="9">
-        <v>1042850089</v>
-      </c>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="B57" s="8">
+        <v>-1267973680</v>
+      </c>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="9">
-        <v>2122499060</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="B58" s="8">
+        <v>1807327968</v>
+      </c>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="9">
-        <v>-1704290728</v>
-      </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="B59" s="8">
+        <v>762521550</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="9">
-        <v>2019387507</v>
-      </c>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="B60" s="8">
+        <v>-889412678</v>
+      </c>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="9">
-        <v>-23484989</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="B61" s="8">
+        <v>-842176619</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="9">
-        <v>675662000</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="B62" s="8">
+        <v>591079095</v>
+      </c>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="9">
-        <v>-76625773</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="B63" s="8">
+        <v>1964532624</v>
+      </c>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B52" s="9">
-        <v>84466487</v>
-      </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="B64" s="8">
+        <v>-1050284878</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="9">
-        <v>-393417777</v>
-      </c>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B54" s="9">
-        <v>-850448534</v>
-      </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="9">
-        <v>880434864</v>
-      </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="9">
-        <v>1618229574</v>
-      </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" s="9">
-        <v>-1267973680</v>
-      </c>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="9">
-        <v>1807327968</v>
-      </c>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="9">
-        <v>762521550</v>
-      </c>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="9">
-        <v>-889412678</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" s="9">
-        <v>-842176619</v>
-      </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" s="9">
-        <v>591079095</v>
-      </c>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="9">
-        <v>1964532624</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="9">
-        <v>-1050284878</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>1282995532</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="C65" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7724,58 +7549,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="17"/>
+      <c r="A2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>233</v>
+      <c r="A3" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>237</v>
+      <c r="A5" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+        <v>226</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7800,240 +7625,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8055,159 +7880,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
